--- a/medicine/Enfance/Alexandre_de_Moté/Alexandre_de_Moté.xlsx
+++ b/medicine/Enfance/Alexandre_de_Moté/Alexandre_de_Moté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alexandre_de_Mot%C3%A9</t>
+          <t>Alexandre_de_Moté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre de Moté, né le 26 avril 1979, est un auteur de bande dessinée  belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexandre_de_Mot%C3%A9</t>
+          <t>Alexandre_de_Moté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexandre de Moté naît le 26 avril 1979[1].
-Il s'inscrit à l'ERG[2]. Il en sort diplômé en 2004[2]. Il participe ensuite à plusieurs expositions en Belgique telles Par la bande et Usage externe ou en France avec Paris province ; Bruxelles capitale au Centre Wallonie-Bruxelles[2],[3]. En 2006, il rejoint le collectif bruxellois Nos Restes[2],[4]. La même année, il reçoit le prix de la Communauté française de Belgique lors de l’exposition Médiatine[2]. En 2008, il lance, au sein de Nos Restes, le fanzine d’illustration Eisbär qui met en avant l’illustration contemporaine belge et internationale[5].
-Il sort son premier one shot Du sang sous le sapin[6] sur un scénario de bande dessinée de Philippe Vanderheyden aux éditions L'Employé du Moi en 2009. Il est lauréat d'une bourse de la Fédération Wallonie-Bruxelles et d'un congé sabbatique en 2011[2]. Il réalise seul son second one shot Last nite dans la collection « Vingt-quatre » chez le même éditeur en 2012. La même année, il réalise encore seul Nympha Moderna publié aux éditions Alter comics ainsi que Merde, je suis (encore) amoureux avec le collectif Nos restes[2]. Il enchaîne l'année suivante avec Être mort[7] publié aux éditions La Cinquième Couche et L'Odeur des souvenirs[8] chez Alter comics[2]. Il livre le roman graphique Je n'ai jamais dit je t'aime[9] dans la collection « Soudain » aux éditions nantaises Vide Cocagne en 2017. Deux ans plus tard, il publie dans la même collection Et si je m'en vais avant toi. Ce récit revisite le mythe de Judith[10]. Il écrit La Voie de Calliopée pour le dessinateur français Paul Burckel publié dans la collection « Plantigrade » aux éditions 6 Pieds sous terre en 2021. Un récit décalé sur l’art, la transmission et la folie humaine[11]. La même année encore, il réalise l'illustration du mois d'avril pour la Société des auteurs et compositeurs dramatiques[12].
-Depuis 2006, il participe régulièrement à divers collectifs[2],[5].
-En littérature jeunesse, on lui doit l'écriture de Sacha : La Colère du Graou (2022) et Sacha : La Timidité du Tigrou[13] (2023) illustré par Joëlle Passeron publié dans la collection « Jeunesse » aux éditions Glénat.
-En 2023, il fait son entrée dans Spirou avec la rédaction de la rubrique Tout ce qu'il faut savoir sur.... Il y écrit un quart de page pour le dessinateur Pierre Lecrenier[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexandre de Moté naît le 26 avril 1979.
+Il s'inscrit à l'ERG. Il en sort diplômé en 2004. Il participe ensuite à plusieurs expositions en Belgique telles Par la bande et Usage externe ou en France avec Paris province ; Bruxelles capitale au Centre Wallonie-Bruxelles,. En 2006, il rejoint le collectif bruxellois Nos Restes,. La même année, il reçoit le prix de la Communauté française de Belgique lors de l’exposition Médiatine. En 2008, il lance, au sein de Nos Restes, le fanzine d’illustration Eisbär qui met en avant l’illustration contemporaine belge et internationale.
+Il sort son premier one shot Du sang sous le sapin sur un scénario de bande dessinée de Philippe Vanderheyden aux éditions L'Employé du Moi en 2009. Il est lauréat d'une bourse de la Fédération Wallonie-Bruxelles et d'un congé sabbatique en 2011. Il réalise seul son second one shot Last nite dans la collection « Vingt-quatre » chez le même éditeur en 2012. La même année, il réalise encore seul Nympha Moderna publié aux éditions Alter comics ainsi que Merde, je suis (encore) amoureux avec le collectif Nos restes. Il enchaîne l'année suivante avec Être mort publié aux éditions La Cinquième Couche et L'Odeur des souvenirs chez Alter comics. Il livre le roman graphique Je n'ai jamais dit je t'aime dans la collection « Soudain » aux éditions nantaises Vide Cocagne en 2017. Deux ans plus tard, il publie dans la même collection Et si je m'en vais avant toi. Ce récit revisite le mythe de Judith. Il écrit La Voie de Calliopée pour le dessinateur français Paul Burckel publié dans la collection « Plantigrade » aux éditions 6 Pieds sous terre en 2021. Un récit décalé sur l’art, la transmission et la folie humaine. La même année encore, il réalise l'illustration du mois d'avril pour la Société des auteurs et compositeurs dramatiques.
+Depuis 2006, il participe régulièrement à divers collectifs,.
+En littérature jeunesse, on lui doit l'écriture de Sacha : La Colère du Graou (2022) et Sacha : La Timidité du Tigrou (2023) illustré par Joëlle Passeron publié dans la collection « Jeunesse » aux éditions Glénat.
+En 2023, il fait son entrée dans Spirou avec la rédaction de la rubrique Tout ce qu'il faut savoir sur.... Il y écrit un quart de page pour le dessinateur Pierre Lecrenier.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alexandre_de_Mot%C3%A9</t>
+          <t>Alexandre_de_Moté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,19 +563,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums de bande dessinée
-Du sang sous le sapin[6], L'Employé du Moi, Bruxelles, 14 novembre 2009Scénario : Philippe Vanderheyden - Dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 978-2-930360-29-4),Format poche
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Du sang sous le sapin, L'Employé du Moi, Bruxelles, 14 novembre 2009Scénario : Philippe Vanderheyden - Dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 978-2-930360-29-4),Format poche
 Last Nite, L'Employé du Moi, coll. « Vingt-quatre », Bruxelles, 13 septembre 2012Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 9782930360492)
 Nympha Moderna, Alter comics, Montpellier, 2012Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 978-2820700315)
-Être mort[7], La Cinquième Couche, Bruxelles, 23 avril 2013Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 9782930356921)
-L'Odeur des souvenirs[8], Alter comics, Montpellier, 26 juin 2013Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 9782820700711)
-Je n'ai jamais dit je t'aime[9], Vide Cocagne, coll. « Soudain », Nantes, octobre 2017Scénario, dessin et couleurs : Alexandre de Moté -  (ISBN 979-10-90425-89-7)
-Et si je m'en vais avant toi[10], Vide Cocagne, coll. « Soudain », Nantes, mai 2019Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 978-2-379-36006-0)
-La Voie de Calliopée[11], 6 Pieds sous terre, coll. « Plantigrade », Montpellier, 8 avril 2021Scénario : Alexandre de Moté - Dessin et couleurs : Paul Burckel -  (ISBN 978-2-352-12161-9),Format poche
-Littérature jeunesse
-comme auteur
-Joëlle Passeron (ill.), Sacha : La Colère du Graou (Album jeunesse), Grenoble, Glénat, coll. « Jeunesse », 28 septembre 2022 (ISBN 978-2-344-05078-1, présentation en ligne)
-Joëlle Passeron (ill.), Sacha : La Timidité du Tigrou[13] (Album jeunesse), Grenoble, Glénat, coll. « Jeunesse », 31 mai 2023 (ISBN 9782344057087, présentation en ligne)</t>
+Être mort, La Cinquième Couche, Bruxelles, 23 avril 2013Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 9782930356921)
+L'Odeur des souvenirs, Alter comics, Montpellier, 26 juin 2013Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 9782820700711)
+Je n'ai jamais dit je t'aime, Vide Cocagne, coll. « Soudain », Nantes, octobre 2017Scénario, dessin et couleurs : Alexandre de Moté -  (ISBN 979-10-90425-89-7)
+Et si je m'en vais avant toi, Vide Cocagne, coll. « Soudain », Nantes, mai 2019Scénario et dessin : Alexandre de Moté - Couleurs : noir et blanc -  (ISBN 978-2-379-36006-0)
+La Voie de Calliopée, 6 Pieds sous terre, coll. « Plantigrade », Montpellier, 8 avril 2021Scénario : Alexandre de Moté - Dessin et couleurs : Paul Burckel -  (ISBN 978-2-352-12161-9),Format poche</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alexandre_de_Moté</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alexandre_de_Mot%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>comme auteur</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Joëlle Passeron (ill.), Sacha : La Colère du Graou (Album jeunesse), Grenoble, Glénat, coll. « Jeunesse », 28 septembre 2022 (ISBN 978-2-344-05078-1, présentation en ligne)
+Joëlle Passeron (ill.), Sacha : La Timidité du Tigrou (Album jeunesse), Grenoble, Glénat, coll. « Jeunesse », 31 mai 2023 (ISBN 9782344057087, présentation en ligne)</t>
         </is>
       </c>
     </row>
